--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>59.88</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.40</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.51</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.12</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.72</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.94</v>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.12</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2071,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.72</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2087,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>4.94</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2103,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.12</v>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2174,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.72</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2312,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.94</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2328,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.12</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.72</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.94</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.34</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1867,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2151,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002111-威海广泰.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.12</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.72</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>4.94</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.34</v>
       </c>
     </row>
@@ -616,7 +633,461 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -956,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +1559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1694,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2298,212 +2769,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7746</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4741</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>